--- a/Project/Other/masters_ganttchart.xlsx
+++ b/Project/Other/masters_ganttchart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amysolman/Documents/CMEECourseWork/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amysolman/Documents/CMEECourseWork/Project/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9558D76-96AE-0649-BC06-C006B1ECCBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E545772-DF20-8C48-84F1-A125A5A4A6B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{C03858AC-80F6-6C43-BD89-FC6C87846F7D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
